--- a/biology/Zoologie/Guy_Dollman/Guy_Dollman.xlsx
+++ b/biology/Zoologie/Guy_Dollman/Guy_Dollman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le capitaine John Guy Dollman est un mammalogiste britannique, né le 4 septembre 1886 et mort le 13 mars 1942.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de l’artiste John Charles Dollman (1851-1934). Il étudie à l’école St Paul puis au St John's College (Cambridge) où il obtient son Bachelor of Arts. Durant ses études, il est employé par le département de zoologie du Musée d'histoire naturelle de Londres où il travaille surtout comme gardien assistant des mammifères.
 En 1912, lors d’une expédition au Viêt Nam, il découvre et décrit le rhinopithèque du Tonkin (Rhinopithecus avunculus). Il voyage pour le compte de Lord Lionel Walter Rothschild (1868-1937) et fait paraître plusieurs publications avec lui dont New mammals from Dutch New Guinea (1932) et The Genus Dendrolagus (1936). Il décrit un grand nombre de nouvelles espèces de mammifères.
@@ -544,7 +558,9 @@
           <t>Liste des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>A History of British Mammals; Gerald Edwin Hamilton Barrett-Hamilton, Guy Dollman, Martin Alister Campbell Hinton, and Edward Adrian Wilson (1910) ASIN: B0014IP87W
 A new Elephant Shrew from Zanzibar; The Annals and Magazine of Natural History, 8th Series, Vol. X, (1912)
@@ -591,7 +607,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Guy Dollman » (voir la liste des auteurs) (version du 5 novembre 2008).</t>
         </is>
